--- a/biology/Médecine/Centre_hospitalier_Métropole_Savoie/Centre_hospitalier_Métropole_Savoie.xlsx
+++ b/biology/Médecine/Centre_hospitalier_Métropole_Savoie/Centre_hospitalier_Métropole_Savoie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier Métropole Savoie (CHMS) est situé en France, sur les communes de Chambéry et Aix-les-Bains, dans le département de la Savoie en région Rhône-Alpes.
 Issu de la fusion des centres hospitaliers de Chambéry et d'Aix-les-Bains intervenue le 1er janvier 2015, il occupe une position de référence régionale, voire de quasi-exclusivité, sur certaines spécialités. Centre d’appel 15 du département, il est en outre doté d’une maternité de type III située à Chambéry. Il emploie 4 200 professionnels et réalise environ 280 hospitalisations et séances — hôpital de jour, radiothérapie, dialyse, etc. — par jour.
-Le site de Chambéry a inauguré un nouvel hôpital en octobre 2015, situé à proximité immédiate du bâtiment actuel. En construction depuis janvier 2011, il remplace désormais l'ancien hôpital, nommé Jacques Dorstter. Habillé de façades en verre sérigraphié, il offre 671 lits sur sept niveaux (73 000 m2)[1].
+Le site de Chambéry a inauguré un nouvel hôpital en octobre 2015, situé à proximité immédiate du bâtiment actuel. En construction depuis janvier 2011, il remplace désormais l'ancien hôpital, nommé Jacques Dorstter. Habillé de façades en verre sérigraphié, il offre 671 lits sur sept niveaux (73 000 m2).
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -522,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,109 +554,186 @@
           <t>Le site hospitalier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Si les sites de Chambéry et d’Aix-les-Bains sont conservés, ce nouvel ensemble, placé sous la responsabilité d’un conseil de surveillance et d’une direction uniques, permet de mieux organiser l’offre de soins publique sur le bassin de population et de mutualiser les compétences.
-Le site de Chambéry
-L'ancien bâtiment principal Jacques-Dorstter a été construit en 1972 par Marcel Xavier Salagnac, architecte DPLG, sur l’emplacement de l’ancien hôpital de la Charité de Chambéry, en haut du Faubourg Maché. Il accueille les services de médecine et de chirurgie : cardiologie, dermatologie, cancérologie, urgences, laboratoire, pharmacie, bloc opératoire ambulatoire, etc.  Il est remplacé par un nouveau bâtiment d'hospitalisation général ouvert le 5 octobre 2015[2]. Sa déconstruction débute en 2018.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si les sites de Chambéry et d’Aix-les-Bains sont conservés, ce nouvel ensemble, placé sous la responsabilité d’un conseil de surveillance et d’une direction uniques, permet de mieux organiser l’offre de soins publique sur le bassin de population et de mutualiser les compétences.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Le site hospitalier</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le site de Chambéry</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'ancien bâtiment principal Jacques-Dorstter a été construit en 1972 par Marcel Xavier Salagnac, architecte DPLG, sur l’emplacement de l’ancien hôpital de la Charité de Chambéry, en haut du Faubourg Maché. Il accueille les services de médecine et de chirurgie : cardiologie, dermatologie, cancérologie, urgences, laboratoire, pharmacie, bloc opératoire ambulatoire, etc.  Il est remplacé par un nouveau bâtiment d'hospitalisation général ouvert le 5 octobre 2015. Sa déconstruction débute en 2018.
 L'Eveillon est le bâtiment réservé aux femmes enceintes et aux suites de couches. Maternité de type 3, les blocs opératoires et la stérilisation y sont également hébergés.
 L'Hôtel-Dieu est l'hébergement des personnes âgées dépendantes (EHPAD), des soins palliatifs, des soins de suite et réadaptation, etc.
 Le pavillon Sainte-Hélène est l'espace composé de la santé publique, du centre d'enseignement des soins d'urgences, du service de médecine nucléaire, etc.
 L'Institut de formation en soins infirmiers et l'école d'aides-soignants.
-Deux autres EHPAD : dans le quartier du Biollay (Les Berges de l'Hyères), dans la commune de Jacob-Bellecombette (Le Césalet).
-Le site d'Aix-les-Bains
-Le Grand Port accueille les urgences, chirurgie ambulatoire, médecine, laboratoire, imagerie, pharmacie, EHPAD, accueil de jour Alzheimer, etc.
+Deux autres EHPAD : dans le quartier du Biollay (Les Berges de l'Hyères), dans la commune de Jacob-Bellecombette (Le Césalet).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Le site hospitalier</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le site d'Aix-les-Bains</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Grand Port accueille les urgences, chirurgie ambulatoire, médecine, laboratoire, imagerie, pharmacie, EHPAD, accueil de jour Alzheimer, etc.
 La Reine Hortense correspond à la rhumatologie, l'affections du système nerveux, médecine physique et rééducation, etc.
 L'EHPAD Félix-Pignal se situe dans la commune de Brison-Saint-Innocent.
 L'EHPAD Bois-Lamartine à Tresserve.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_M%C3%A9tropole_Savoie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Statut juridique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre hospitalier Métropole Savoie est un établissement public de santé.
 Sa vocation n’est ni industrielle, ni commerciale.
 Le centre hospitalier a un statut de personne morale et de droit public, doté de l’autonomie financière placée sous l’autorité de l’agence régionale de santé (ARS).
-Son statut et ses missions sont fixés par le code de la santé publique, dispositions issues de la loi no 91-748 du 31 juillet 1991, de l’ordonnance no 96-346 du 24 avril 1996[3] et de la loi Hôpital, patients, santé et territoire du 21 juillet 2009.
+Son statut et ses missions sont fixés par le code de la santé publique, dispositions issues de la loi no 91-748 du 31 juillet 1991, de l’ordonnance no 96-346 du 24 avril 1996 et de la loi Hôpital, patients, santé et territoire du 21 juillet 2009.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_M%C3%A9tropole_Savoie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Identification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_M%C3%A9tropole_Savoie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Missions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Un établissement public de santé (EPS) dont les missions de service public sont :
 de soins : la mission première de l'hôpital s'ordonne autour des soins (curatifs et palliatifs).
@@ -652,31 +743,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_M%C3%A9tropole_Savoie</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Missions et obligations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Conformément à la loi, le centre hospitalier Métropole Savoie assure les examens de diagnostic, la surveillance et le traitement des malades, des blessés et des femmes enceintes en tenant compte des aspects psychologiques du patient.
 Il peut participer à des actions de santé publique et notamment à toutes actions médico-sociales coordonnées et à des actions d’éducation pour la santé et de prévention.
@@ -688,31 +781,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_M%C3%A9tropole_Savoie</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Missions de service public</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>L'établissement assure des missions de service public connues traditionnellement sous le nom de service public hospitalier dont les principes s’imposent à lui :
 l’accès égal à tous les usagers.
@@ -729,31 +824,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_M%C3%A9tropole_Savoie</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Effectifs</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Chiffres de 2014 :
 4 309 personnes travaillent à l’hôpital dont 336 médecins :
@@ -761,31 +858,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_M%C3%A9tropole_Savoie</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Partenaires et coopération avec d’autres établissements</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l’environnement immédiat de l’établissement, l’État joue un rôle important à travers :
 ministère de la Santé et des Sports
@@ -810,34 +909,39 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_M%C3%A9tropole_Savoie</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Volume d’activités (chiffre d’affaires, etc)</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>La gestion financière des hôpitaux publics
-Une entreprise avec un état des prévisions de recettes et de dépenses mais intervention des pouvoirs publics.
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>La gestion financière des hôpitaux publics</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une entreprise avec un état des prévisions de recettes et de dépenses mais intervention des pouvoirs publics.
 L'état des prévisions de recettes et de dépenses de l’hôpital :
 Il se compose de deux sections en équilibre :
 Investissement
@@ -849,15 +953,125 @@
 groupe III : charges à caractère hôtelier, général
 groupe IV : amortissements, frais financiers
 Le budget comprend également la section d'investissement.
-Investissement
-L’investissement est une dépense en capital. Sa finalité est d’augmenter ou maintenir en état la capacité de production de l'hôpital.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Volume d’activités (chiffre d’affaires, etc)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Investissement</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’investissement est une dépense en capital. Sa finalité est d’augmenter ou maintenir en état la capacité de production de l'hôpital.
 Recettes d'investissement : autofinancement, subventions, emprunt
 Budget d’investissement : 84 220 378 euros
 Dépenses d’exploitation : 291 000 000 euros
 Toutes les opérations relatives au fonctionnement courant de l'hôpital.
-Les types de services et d’activité
-L’offre de soins se répartit entre consultations spécialisées, explorations fonctionnelles, hospitalisations complètes ou de jour.
-Médecine
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Volume d’activités (chiffre d’affaires, etc)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Les types de services et d’activité</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’offre de soins se répartit entre consultations spécialisées, explorations fonctionnelles, hospitalisations complètes ou de jour.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Volume d’activités (chiffre d’affaires, etc)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Les types de services et d’activité</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Addictologie
 Affestions du système nerveux, hôpital de jour et SSR
 Allergologie
@@ -897,8 +1111,47 @@
 Unité post-urgences (UPU)
 Urgences adultes
 Urgences pédiatriques
-Chirurgie
-Anesthésie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Volume d’activités (chiffre d’affaires, etc)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Les types de services et d’activité</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Chirurgie</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Anesthésie
 Chirurgie ambulatoire - Chambéry
 Chirurgie et explorations ambulatoires (UCCEA) - Aix-les-Bains
 Chirurgie orale - Odontologie
@@ -907,9 +1160,47 @@
 Chirurgie vasculaire et thoracique
 Chirurgie viscérale et endocrinienne
 Ophtalmologie
-ORL
-Un plateau médico-technique
-Blocs opératoires :
+ORL</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Volume d’activités (chiffre d’affaires, etc)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Les types de services et d’activité</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Un plateau médico-technique</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Blocs opératoires :
 8 salles de bloc ambulatoire (4 à Chambéry, 4 à Aix-les-Bains)
 11 salles pour la chirurgie générale, gynécologique et les spécialités, dont une salle de radiologie interventionnelle
 1 salle de césariennes avec réanimation néonatale
@@ -923,9 +1214,47 @@
 Service et laboratoire de médecine nucléaire (1 PET scan, 3 gamma-caméras)
 Explorations fonctionnelles : ORL, odontologie, pneumologie, ophtalmologie, rhumatologie, neurologie, etc.
 Hémodialyse (20 postes)
-Urgences - Centre 15 - Unité de surveillance continue - Réanimation
-Pôle mère-enfant
-Maternité de type III, réanimation néonatale pour la Savoie et la Haute-Savoie :
+Urgences - Centre 15 - Unité de surveillance continue - Réanimation</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Volume d’activités (chiffre d’affaires, etc)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Les types de services et d’activité</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Pôle mère-enfant</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Maternité de type III, réanimation néonatale pour la Savoie et la Haute-Savoie :
 Gynécologie - Obstétrique
 Addictologie - Tabacologie - Maternité - ELSA
 Anesthésie
@@ -936,15 +1265,91 @@
 Orthogénie - Planification
 Procréation médicalement assistée (PMA)
 Unité de psychopathologie périnatale (UPPN)
-Pédiatrie
-Gériatrie – Gérontologie
-Centre d'évaluation, hôpital de jour et consultation mémoire
+Pédiatrie</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Volume d’activités (chiffre d’affaires, etc)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Les types de services et d’activité</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Gériatrie – Gérontologie</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Centre d'évaluation, hôpital de jour et consultation mémoire
 Court séjour gériatrique
 Hébergements et accueil de jour de personnes âgées (EHPAD et USLD)
 Soins de suite et réadaptation gériatrique
-Unité mobile de gériatrie
-Domaine médico-social
-L’établissement étend son activité dans le domaine médico-social avec :
+Unité mobile de gériatrie</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Volume d’activités (chiffre d’affaires, etc)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Les types de services et d’activité</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Domaine médico-social</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>L’établissement étend son activité dans le domaine médico-social avec :
 L'hospitalisation à domicile (HAD)
 Les unités sanitaires des établissements pénitentiés du département (la maison d’arrêt de Chambéry, la prison d’Aiton)
 Le CIDDIST (Centre d'information de dépistage et de diagnostic des infections sexuellement transmissibles) - (ancien CIDAG)
@@ -964,71 +1369,146 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_M%C3%A9tropole_Savoie</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Autres éléments</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Les écoles
-Institut de formation en soins infirmiers : 475 élèves infirmiers 2014-2015.
-Centre de formation des aides soignants : 57 élèves 2014-2015.
-La logistique
-Garage : 76 véhicules
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Les écoles</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Institut de formation en soins infirmiers : 475 élèves infirmiers 2014-2015.
+Centre de formation des aides soignants : 57 élèves 2014-2015.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Autres éléments</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>La logistique</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Garage : 76 véhicules
 Crèche hospitalière : 35 places
 2 614 tonnes de linge : 7 tonnes par jour
-1 546 646 repas servis
-La démographie
-Le nombre des naissances en 2014 a été de 3 291, soit environ 9/jour.
+1 546 646 repas servis</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Autres éléments</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>La démographie</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Le nombre des naissances en 2014 a été de 3 291, soit environ 9/jour.
 Le nombre des décès en 2014 a été de 1 180, soit environ 3/jour.</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_M%C3%A9tropole_Savoie</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Activité : quelques indicateurs traditionnels</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Le centre hospitalier Métropole Savoie, ce sont :
 1 814 lits et places dont 711 lits en long séjour et maison de retraite ;
@@ -1038,31 +1518,33 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_M%C3%A9tropole_Savoie</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Métropole_Savoie</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_M%C3%A9tropole_Savoie</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Qualité</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sites d'Aix-les-Bains et de Chambéry sont certifiés par la Haute autorité de santé (HAS). Ils sont engagés, depuis plusieurs années, dans une démarche d'amélioration continue de la qualité et de la sécurité des soins pour répondre aux besoins et attentes des patients.
 En 2014, 456 demandes d'accès au dossier médical et 110 réclamations ont été comptabilisées pour un taux de satisfaction global de 98 %.
